--- a/biology/Écologie/Jules_Pavillard/Jules_Pavillard.xlsx
+++ b/biology/Écologie/Jules_Pavillard/Jules_Pavillard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jules Pavillard (Bayonne, 7 avril 1868 - Montpellier, 5 novembre 1961) est un botaniste français.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est reçu, en 1894, agrégé de sciences naturelles[2] après ses études à l'université de Bordeaux. Il commence sa carrière comme professeur de lycée à Grenoble, puis, le 2 janvier 1895, à Montpellier.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est reçu, en 1894, agrégé de sciences naturelles après ses études à l'université de Bordeaux. Il commence sa carrière comme professeur de lycée à Grenoble, puis, le 2 janvier 1895, à Montpellier.
 Après quelques mois d'enseignement au lycée de Grenoble, en janvier 1895 il est nommé à Montpellier. C'est là qu'il fera toute sa carrière, d'abord au lycée, puis à la faculté des sciences de l'université, où, en 1908, sur proposition de Charles Flahault, il est nommé maître de conférence à l'Institut botanique de Montpellier, puis, en 1909, professeur adjoint. 
 Entre-temps, en 1905, il soutient,à Paris, une thèse de doctorat intitulée « Recherches sur la flore pélagique (Phytoplakton) de l'étang de Thau. » à Paris. Quelque 20 ans plus tard, en 1927, il succède à Flahault comme directeur de l'institut botanique.
 En 1913, il épouse mademoiselle Cluzeau. Une fille et un fils naissent de ce mariage. Son fils, Jean, déjà Maître de conférence à l'Université de Toulouse, meurt du vivant de ses parents, d'un accident.
 En 1930, il fonde avec Josias Braun-Blanquet et d'autres botanistes la Station internationale de géobotanique méditerranéenne et alpine de Montpellier, et en devient le président.
-Ses archives se trouvent en partie aux Archives départementales de l'Hérault[3]. Un fonds d’environ 150 documents a été donné à la Bibliothèque de Pharmacie de la Bibliothèque Inter Universitaire de Montpellier.
+Ses archives se trouvent en partie aux Archives départementales de l'Hérault. Un fonds d’environ 150 documents a été donné à la Bibliothèque de Pharmacie de la Bibliothèque Inter Universitaire de Montpellier.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jules Pavillard est l'auteur d'une centaine de publications ; parmi les plus importantes, on retiendra :
 Éléments de biologie végétale, Société d'Éditions Scientifiques, 1901, 589 p.
